--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Cadm3-Cadm3.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H2">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I2">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J2">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="N2">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="O2">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="P2">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="Q2">
-        <v>6.074657361123999</v>
+        <v>88.86266660553343</v>
       </c>
       <c r="R2">
-        <v>54.67191625011599</v>
+        <v>799.763999449801</v>
       </c>
       <c r="S2">
-        <v>0.04389088088515263</v>
+        <v>0.2381555358450143</v>
       </c>
       <c r="T2">
-        <v>0.04389088088515263</v>
+        <v>0.2381555358450142</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H3">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I3">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J3">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,28 +614,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="N3">
         <v>23.950568</v>
       </c>
       <c r="O3">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="P3">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="Q3">
-        <v>19.67684461312533</v>
+        <v>75.25827046069243</v>
       </c>
       <c r="R3">
-        <v>177.091601518128</v>
+        <v>677.324434146232</v>
       </c>
       <c r="S3">
-        <v>0.1421700010007712</v>
+        <v>0.2016952046678638</v>
       </c>
       <c r="T3">
-        <v>0.1421700010007712</v>
+        <v>0.2016952046678638</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H4">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I4">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J4">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="N4">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="O4">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="P4">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="Q4">
-        <v>3.095447525243333</v>
+        <v>17.12437607610589</v>
       </c>
       <c r="R4">
-        <v>27.85902772719</v>
+        <v>154.119384684953</v>
       </c>
       <c r="S4">
-        <v>0.02236536326907448</v>
+        <v>0.0458940195720234</v>
       </c>
       <c r="T4">
-        <v>0.02236536326907448</v>
+        <v>0.04589401957202338</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="H5">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="I5">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="J5">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,28 +738,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="N5">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="O5">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="P5">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="Q5">
-        <v>0.148819963842</v>
+        <v>0.8459048945883334</v>
       </c>
       <c r="R5">
-        <v>1.339379674578</v>
+        <v>7.613144051295</v>
       </c>
       <c r="S5">
-        <v>0.001075260532079352</v>
+        <v>0.002267059285300136</v>
       </c>
       <c r="T5">
-        <v>0.001075260532079352</v>
+        <v>0.002267059285300135</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H6">
         <v>23.950568</v>
       </c>
       <c r="I6">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J6">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -800,28 +800,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="N6">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="O6">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="P6">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="Q6">
-        <v>19.67684461312533</v>
+        <v>75.25827046069243</v>
       </c>
       <c r="R6">
-        <v>177.091601518128</v>
+        <v>677.324434146232</v>
       </c>
       <c r="S6">
-        <v>0.1421700010007712</v>
+        <v>0.2016952046678638</v>
       </c>
       <c r="T6">
-        <v>0.1421700010007712</v>
+        <v>0.2016952046678638</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,16 +844,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H7">
         <v>23.950568</v>
       </c>
       <c r="I7">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J7">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="N7">
         <v>23.950568</v>
       </c>
       <c r="O7">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="P7">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="Q7">
-        <v>63.73663416918044</v>
+        <v>63.73663416918043</v>
       </c>
       <c r="R7">
-        <v>573.629707522624</v>
+        <v>573.6297075226239</v>
       </c>
       <c r="S7">
-        <v>0.4605127255806954</v>
+        <v>0.1708167540245029</v>
       </c>
       <c r="T7">
-        <v>0.4605127255806956</v>
+        <v>0.1708167540245028</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H8">
         <v>23.950568</v>
       </c>
       <c r="I8">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J8">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="N8">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="O8">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="P8">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="Q8">
-        <v>10.02667909339111</v>
+        <v>14.50272623403289</v>
       </c>
       <c r="R8">
-        <v>90.24011184052002</v>
+        <v>130.524536106296</v>
       </c>
       <c r="S8">
-        <v>0.07244520169615806</v>
+        <v>0.03886789210154735</v>
       </c>
       <c r="T8">
-        <v>0.07244520169615808</v>
+        <v>0.03886789210154734</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="H9">
         <v>23.950568</v>
       </c>
       <c r="I9">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="J9">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="K9">
         <v>2</v>
@@ -986,28 +986,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M9">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="N9">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="O9">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="P9">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="Q9">
-        <v>0.4820530821359999</v>
+        <v>0.7164014064933333</v>
       </c>
       <c r="R9">
-        <v>4.338477739223999</v>
+        <v>6.44761265844</v>
       </c>
       <c r="S9">
-        <v>0.00348295107864932</v>
+        <v>0.001919984706298669</v>
       </c>
       <c r="T9">
-        <v>0.003482951078649321</v>
+        <v>0.001919984706298669</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H10">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I10">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J10">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="N10">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="O10">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="P10">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="Q10">
-        <v>3.095447525243333</v>
+        <v>17.12437607610589</v>
       </c>
       <c r="R10">
-        <v>27.85902772719</v>
+        <v>154.119384684953</v>
       </c>
       <c r="S10">
-        <v>0.02236536326907448</v>
+        <v>0.0458940195720234</v>
       </c>
       <c r="T10">
-        <v>0.02236536326907448</v>
+        <v>0.04589401957202338</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,16 +1092,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H11">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I11">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J11">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1110,28 +1110,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="N11">
         <v>23.950568</v>
       </c>
       <c r="O11">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="P11">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="Q11">
-        <v>10.02667909339111</v>
+        <v>14.50272623403289</v>
       </c>
       <c r="R11">
-        <v>90.24011184052002</v>
+        <v>130.524536106296</v>
       </c>
       <c r="S11">
-        <v>0.07244520169615806</v>
+        <v>0.03886789210154735</v>
       </c>
       <c r="T11">
-        <v>0.07244520169615808</v>
+        <v>0.03886789210154734</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,16 +1154,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H12">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I12">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J12">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1172,28 +1172,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="N12">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="O12">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="P12">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="Q12">
-        <v>1.577339232802778</v>
+        <v>3.299971373778778</v>
       </c>
       <c r="R12">
-        <v>14.196053095225</v>
+        <v>29.699742364009</v>
       </c>
       <c r="S12">
-        <v>0.01139666062903916</v>
+        <v>0.00884405657422118</v>
       </c>
       <c r="T12">
-        <v>0.01139666062903916</v>
+        <v>0.008844056574221177</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,16 +1216,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="H13">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="I13">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="J13">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1234,28 +1234,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M13">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="N13">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="O13">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="P13">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="Q13">
-        <v>0.075833806155</v>
+        <v>0.1630110156816667</v>
       </c>
       <c r="R13">
-        <v>0.6825042553949999</v>
+        <v>1.467099141135</v>
       </c>
       <c r="S13">
-        <v>0.0005479177433640471</v>
+        <v>0.000436876106370298</v>
       </c>
       <c r="T13">
-        <v>0.0005479177433640471</v>
+        <v>0.0004368761063702979</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,16 +1278,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H14">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I14">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J14">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1296,28 +1296,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.464682</v>
+        <v>9.426699666666666</v>
       </c>
       <c r="N14">
-        <v>7.394045999999999</v>
+        <v>28.280099</v>
       </c>
       <c r="O14">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702016</v>
       </c>
       <c r="P14">
-        <v>0.2095015056870776</v>
+        <v>0.4880118193702015</v>
       </c>
       <c r="Q14">
-        <v>0.148819963842</v>
+        <v>0.8459048945883334</v>
       </c>
       <c r="R14">
-        <v>1.339379674578</v>
+        <v>7.613144051295</v>
       </c>
       <c r="S14">
-        <v>0.001075260532079352</v>
+        <v>0.002267059285300136</v>
       </c>
       <c r="T14">
-        <v>0.001075260532079352</v>
+        <v>0.002267059285300135</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,16 +1340,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H15">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I15">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J15">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1358,28 +1358,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>7.983522666666667</v>
+        <v>7.983522666666666</v>
       </c>
       <c r="N15">
         <v>23.950568</v>
       </c>
       <c r="O15">
-        <v>0.678610879356274</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="P15">
-        <v>0.6786108793562741</v>
+        <v>0.4132998355002127</v>
       </c>
       <c r="Q15">
-        <v>0.4820530821359999</v>
+        <v>0.7164014064933333</v>
       </c>
       <c r="R15">
-        <v>4.338477739223999</v>
+        <v>6.44761265844</v>
       </c>
       <c r="S15">
-        <v>0.00348295107864932</v>
+        <v>0.001919984706298669</v>
       </c>
       <c r="T15">
-        <v>0.003482951078649321</v>
+        <v>0.001919984706298669</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,16 +1402,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H16">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I16">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J16">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1420,28 +1420,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>1.255921666666667</v>
+        <v>1.816582333333334</v>
       </c>
       <c r="N16">
-        <v>3.767765</v>
+        <v>5.449747</v>
       </c>
       <c r="O16">
-        <v>0.1067551433376357</v>
+        <v>0.09404284435416221</v>
       </c>
       <c r="P16">
-        <v>0.1067551433376357</v>
+        <v>0.0940428443541622</v>
       </c>
       <c r="Q16">
-        <v>0.075833806155</v>
+        <v>0.1630110156816667</v>
       </c>
       <c r="R16">
-        <v>0.6825042553949999</v>
+        <v>1.467099141135</v>
       </c>
       <c r="S16">
-        <v>0.0005479177433640471</v>
+        <v>0.000436876106370298</v>
       </c>
       <c r="T16">
-        <v>0.0005479177433640471</v>
+        <v>0.0004368761063702979</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1464,16 +1464,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G17">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="H17">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="I17">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="J17">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1482,28 +1482,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>0.06038099999999999</v>
+        <v>0.08973500000000001</v>
       </c>
       <c r="N17">
-        <v>0.181143</v>
+        <v>0.269205</v>
       </c>
       <c r="O17">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423563</v>
       </c>
       <c r="P17">
-        <v>0.00513247161901269</v>
+        <v>0.004645500775423562</v>
       </c>
       <c r="Q17">
-        <v>0.003645865160999999</v>
+        <v>0.008052370225000001</v>
       </c>
       <c r="R17">
-        <v>0.03281278644899999</v>
+        <v>0.07247133202500002</v>
       </c>
       <c r="S17">
-        <v>2.634226491997074E-05</v>
+        <v>2.158067745446093E-05</v>
       </c>
       <c r="T17">
-        <v>2.634226491997074E-05</v>
+        <v>2.158067745446092E-05</v>
       </c>
     </row>
   </sheetData>
